--- a/me/1.Mot-so-dieu-can-biet-ve-Javascript/5.Parameters-va-Arguments .xlsx
+++ b/me/1.Mot-so-dieu-can-biet-ve-Javascript/5.Parameters-va-Arguments .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/javascript_advance/me/1.Mot-so-dieu-can-biet-ve-Javascript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083142CA-C359-DD47-A68F-B7315D1E74AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E79F0F-AF5F-8649-A854-4639B91838FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="1520" windowWidth="32760" windowHeight="18260" xr2:uid="{3744E9F1-8FB1-A847-973D-4E4B321E055B}"/>
+    <workbookView xWindow="39100" yWindow="2220" windowWidth="32760" windowHeight="18260" xr2:uid="{3744E9F1-8FB1-A847-973D-4E4B321E055B}"/>
   </bookViews>
   <sheets>
     <sheet name="Params &amp; Args" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>構成</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Sau khi thực thi xong hàm calAge() sẽ thực hiện xoá Execution Context(của hàm calAge) và remove trạng thái thực thi của nó khỏi Call Stack</t>
+  </si>
+  <si>
+    <t>01_Creation_Phase</t>
   </si>
 </sst>
 </file>
@@ -386,18 +389,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -410,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -426,6 +427,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,13 +451,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>24845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -499,13 +501,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>54652</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -543,13 +545,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>212668</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>25990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -592,13 +594,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>101088</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -642,13 +644,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -695,13 +697,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -748,13 +750,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -801,13 +803,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -854,13 +856,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -907,13 +909,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -960,13 +962,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1013,13 +1015,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1066,13 +1068,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1119,13 +1121,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1172,13 +1174,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1227,13 +1229,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>113094</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1277,13 +1279,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1626,845 +1628,634 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5561E146-C78C-2A4E-9991-A4C2398922B8}">
-  <dimension ref="A3:T204"/>
+  <dimension ref="A3:T205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
-      <c r="C9" t="s">
+      <c r="C9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
-      <c r="D10" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-      <c r="D11" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
-      <c r="D13" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-      <c r="D14" t="s">
+      <c r="F14" s="18"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="D15" t="s">
+      <c r="F15" s="18"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="5"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
-      <c r="D18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="5"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
-      <c r="D19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="5"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="5"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
-      <c r="D21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="5"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="F23" s="18"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="11" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="16"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="16"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="16"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="16"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="16"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="16"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="16"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="16"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="16"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="16"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="16"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="16"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="14"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="16"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="19"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="14"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="4"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="5"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
+      <c r="B47" s="4"/>
       <c r="E47" s="5"/>
-      <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
+        <v>16</v>
+      </c>
       <c r="E48" s="5"/>
+      <c r="F48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B50" s="4"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
       <c r="E50" s="5"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="4"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="5"/>
-      <c r="F51" t="s">
+      <c r="E52" s="5"/>
+      <c r="F52" t="s">
         <v>24</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B52" s="7"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B53" s="6"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B56" s="4"/>
-      <c r="C56" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="20"/>
-      <c r="T56" s="5"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="3"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B57" s="4"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="20"/>
+      <c r="C57" t="s">
+        <v>36</v>
+      </c>
       <c r="T57" s="5"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B58" s="4"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="20"/>
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
       <c r="T58" s="5"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B59" s="4"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="20"/>
+      <c r="D59" t="s">
+        <v>27</v>
+      </c>
       <c r="T59" s="5"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B60" s="4"/>
-      <c r="C60" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="20"/>
+      <c r="D60" t="s">
+        <v>28</v>
+      </c>
       <c r="T60" s="5"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B61" s="4"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="20"/>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
       <c r="T61" s="5"/>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B62" s="4"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
+      <c r="D62" t="s">
+        <v>30</v>
+      </c>
       <c r="T62" s="5"/>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B63" s="4"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="20"/>
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
       <c r="T63" s="5"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B64" s="4"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="20"/>
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
       <c r="T64" s="5"/>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B65" s="4"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="20"/>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="20"/>
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
       <c r="T65" s="5"/>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B66" s="4"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20" t="s">
+      <c r="D66" t="s">
+        <v>33</v>
+      </c>
+      <c r="T66" s="5"/>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B67" s="4"/>
+      <c r="D67" t="s">
         <v>34</v>
       </c>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="20"/>
-      <c r="T66" s="5"/>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B67" s="7"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="9"/>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C69" s="1" t="s">
+      <c r="T67" s="5"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B68" s="6"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="8"/>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C70" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C70" s="4"/>
-      <c r="D70" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="20"/>
-      <c r="O70" s="20"/>
-      <c r="P70" s="5"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="3"/>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="4"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
-      <c r="O71" s="20"/>
+      <c r="D71" t="s">
+        <v>36</v>
+      </c>
       <c r="P71" s="5"/>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="4"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="20"/>
-      <c r="O72" s="20"/>
+      <c r="E72" t="s">
+        <v>37</v>
+      </c>
       <c r="P72" s="5"/>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="4"/>
-      <c r="D73" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20"/>
+      <c r="E73" t="s">
+        <v>38</v>
+      </c>
       <c r="P73" s="5"/>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="4"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20"/>
+      <c r="D74" t="s">
+        <v>29</v>
+      </c>
       <c r="P74" s="5"/>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="4"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="20"/>
+      <c r="E75" t="s">
+        <v>39</v>
+      </c>
       <c r="P75" s="5"/>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="4"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20" t="s">
+      <c r="E76" t="s">
+        <v>40</v>
+      </c>
+      <c r="P76" s="5"/>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C77" s="4"/>
+      <c r="E77" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="20"/>
-      <c r="P76" s="5"/>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C77" s="7"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="9"/>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B203" t="s">
-        <v>41</v>
-      </c>
+      <c r="P77" s="5"/>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C78" s="6"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="8"/>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B27:I41"/>
+    <mergeCell ref="B28:I42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
